--- a/medicine/Enfance/Marcelino_Truong/Marcelino_Truong.xlsx
+++ b/medicine/Enfance/Marcelino_Truong/Marcelino_Truong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcelino Truong, né le 5 février 1957 à Manille (Philippines), est un illustrateur, peintre et dessinateur de bande dessinée français.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcelino Truong, né d'un père vietnamien et d'une mère française, passe son enfance aux États-Unis, au Vietnam et en Grande-Bretagne. De 1960 à 1964, il vit à Saïgon. Sa famille s'installe ensuite à Londres où son père est diplomate à l'ambassade du Sud Viêt Nam. Puis il poursuit sa scolarité en France, ayant pris la nationalité du pays de sa mère.
-Diplômé de Sciences-Po Paris et agrégé d’anglais[1], il quitte l'enseignement et commence sa vie d’artiste en 1983.
-« J'ai appris sur le tard et sur le tas. Il m'a bien fallu quinze à vingt ans pour trouver mon style, proche du « réalisme poétique ». Après avoir navigué entre la ligne claire de Floc'h et le trait de Loustal, j'y suis arrivé en passant à la gouache et à la couleur directe. »[2] Lorsqu'il crée ses illustrations, Trung débute par le crayon et l'encre de Chine et poursuit ensuite avec de la gouache et de l'aquarelle sur papier[3].
+Diplômé de Sciences-Po Paris et agrégé d’anglais, il quitte l'enseignement et commence sa vie d’artiste en 1983.
+« J'ai appris sur le tard et sur le tas. Il m'a bien fallu quinze à vingt ans pour trouver mon style, proche du « réalisme poétique ». Après avoir navigué entre la ligne claire de Floc'h et le trait de Loustal, j'y suis arrivé en passant à la gouache et à la couleur directe. » Lorsqu'il crée ses illustrations, Trung débute par le crayon et l'encre de Chine et poursuit ensuite avec de la gouache et de l'aquarelle sur papier.
 Les ambiances et décors orientaux, sources très inspirantes pour Marcelino Truong, lui permettent de dessiner son Vietnam personnel, mélange de souvenirs, d'histoire, de rêves et d'imagination.
 Il est l’auteur de nombreuses couvertures de livres sur le Vietnam aux éditions de l'Aube, Le Dilettante, Actes Sud et Plon, ainsi que des couvertures de plusieurs romans de l'écrivain Éric-Emmanuel Schmitt, en France, ainsi qu’à l’étranger. On le voit régulièrement dans les pages de Libération, du Figaro littéraire et des magazines Senso, Elle, XXI. Toujours se retrouve chez lui la fascination pour l’Asie.
-En 1995, l'ouvrage qu'il a illustré, écrit par Franck Pavloff, dans la collection « J'accuse…! » aux éditions Syros :  Enfants prostitués en Asie, est lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne[4] (Italie).
+En 1995, l'ouvrage qu'il a illustré, écrit par Franck Pavloff, dans la collection « J'accuse…! » aux éditions Syros :  Enfants prostitués en Asie, est lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne (Italie).
 En 2012, il publie un roman graphique, Une si jolie petite guerre, sur son enfance à Saïgon dans les années soixante. Trois ans plus tard, il donne une suite à cet album, Give peace à chance, qui raconte la vie de sa famille en Europe pendant la guerre du Viêt Nam.
-La revue Griffon lui a consacré un dossier en 2005[5].
+La revue Griffon lui a consacré un dossier en 2005.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Couvertures de romans vietnamiens
-À nos vingt ans, roman de Nguyen Huy Thiep, traduit par Sean James-Rose, éditions de l'Aube, 2005
+          <t>Couvertures de romans vietnamiens</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À nos vingt ans, roman de Nguyen Huy Thiep, traduit par Sean James-Rose, éditions de l'Aube, 2005
 Rue des soldats, roman de Chu Lai, éditions de l'Aube, 2003
 L’Or et le feu, roman de Nguyen Huy Thiep, éditions de l'Aube 2002, poche 2003
 L’Embarcadère des femmes sans maris, roman de Duong Thu Huong, éditions de l'Aube 2002
@@ -564,9 +583,43 @@
 L’Île aux femmes, roman de Ho Anh Thai, éditions de l'Aube 1997
 Les Aventures de grillon, fable de Tô Hoai, éditions de l'Aube 1997
 Des fantômes et des hommes, roman de Nguyen Khac Truong, éditions de l'Aube 1996
-Histoire d’amour racontée avant l’aube, roman de Duong Thu Huong, éditions de l'Aube 1994, poche 2003
-Bandes dessinées
-In bluer skies, Magic Strip, coll. « Atomium 58 », 1985
+Histoire d’amour racontée avant l’aube, roman de Duong Thu Huong, éditions de l'Aube 1994, poche 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>In bluer skies, Magic Strip, coll. « Atomium 58 », 1985
 Le Dragon de bambou, scénario de Francis Leroi, Éditions Albin Michel, coll. « L’Écho des Savanes », 1991
 Enfants prostitués en Asie, scénario de Franck Pavloff, Syros, coll. J'accuse, 1995
 Billie Holiday, BDMusic, coll. « BDJazz », 2009
@@ -574,9 +627,43 @@
 Julie London, BDMusic, coll. « BDJazz », 2011
 Une si jolie petite guerre, Denoël, coll. « Denoël Graphic », 2012
 Give peace a chance, Denoël, coll. « Denoël Graphic », 2015
-40 hommes et 12 fusils, Denoël, coll. « Denoël Graphic », 2022
-Livres pour enfants
-Les chanteurs dans l'ombre de Jabra Ibrahim Jabra, Syros, coll. « Albums Multicultures », 1993
+40 hommes et 12 fusils, Denoël, coll. « Denoël Graphic », 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les chanteurs dans l'ombre de Jabra Ibrahim Jabra, Syros, coll. « Albums Multicultures », 1993
 Plume rouge de Michel Piquemal, Nathan, 1993
 Une journée à Hanoï, Hachette jeunesse, coll. « Demi-page », 1997
 Brendan et les musiques celtiques de Gabriel Yacoub, Gallimard jeunesse, coll. « Musiques d'ailleurs », 1999, livre-CD
@@ -597,12 +684,46 @@
 La carambole d'or de Yveline Féray, Picquier jeunesse, 2008
 Le Monde d'en haut, de Xavier-Laurent Petit, Casterman, coll. "Roman poche", 2010
 Churchill, illustrateur Jean-Christophe Mazurie, Actes Sud junior, coll. « T'étais qui toi ? », 2011
-Les craquelin du père Noël, in Contes de Noël. Les plus beaux contes de mon enfance de Isabelle Lafonta, Gautier-Languereau, 2011
-Couvertures de romans pour enfants
- Le chevalier au bouclier vert de Odile Weulersse, Hachette, coll. « Le livre de poche jeunesse », 1990
+Les craquelin du père Noël, in Contes de Noël. Les plus beaux contes de mon enfance de Isabelle Lafonta, Gautier-Languereau, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcelino_Truong</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Couvertures de romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le chevalier au bouclier vert de Odile Weulersse, Hachette, coll. « Le livre de poche jeunesse », 1990
 En haut la liberté de Daniel Vaxelaire, Flammarion jeunesse, coll. « Castor poche », 1999 ; rééd. 2021  (ISBN 9782080258458)
 Le garçon qui inventa la libellule de Tony Hillerman, Syros, coll. « Les uns les autres », 2001
-La guerre des ombres de Catherine Cuenca, Flammarion jeunesse, 2009[6]
+La guerre des ombres de Catherine Cuenca, Flammarion jeunesse, 2009
 Frères de guerre de Catherine Cuenca, Flammarion jeunesse, 2009
 Vendredi ou la vie sauvage de Michel Tournier, Flammarion jeunesse, 2011
 Les lumières du théâtre de Anne-Marie Desplat-Duc, Flammarion jeunesse, 2012
@@ -611,33 +732,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Marcelino_Truong</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marcelino_Truong</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Enfants prostitués en Asie, Syros, 1995, lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Enfants prostitués en Asie, Syros, 1995, lauréat du Non Fiction Young Adults, à la Foire du livre de jeunesse de Bologne
 Petit Wang (26 minutes), réalisateur Henri Heidsieck, prix du film TV au Festival international du film d'animation d'Annecy en 2006.</t>
         </is>
       </c>
